--- a/202430.xlsx
+++ b/202430.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,14 +557,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
         <v>120</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>42.50</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
         <v>22</v>
@@ -686,6 +686,85 @@
       </c>
       <c r="S3" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>T00000002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>202330</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SPCO</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>120</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/202430.xlsx
+++ b/202430.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,16 @@
           <t>18_Taken</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>FT_TERM_CNT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -536,11 +546,7 @@
           <t>T00000001</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
@@ -551,62 +557,62 @@
           <t>BS</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EXSC</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>51</v>
-      </c>
-      <c r="I2" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>42.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>[ERROR] missing_major: Student has no associated major in the database. Manual review required.</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -615,11 +621,7 @@
           <t>T00000003</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
@@ -630,62 +632,62 @@
           <t>BS</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>HIST</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>[ERROR] missing_major: Student has no associated major in the database. Manual review required.</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -694,11 +696,7 @@
           <t>T00000002</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
@@ -709,17 +707,11 @@
           <t>BS</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>SPCO</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>120</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -727,44 +719,125 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>[ERROR] missing_major: Student has no associated major in the database. Manual review required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>T00000004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>202130</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>31</v>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>[ERROR] missing_major: Student has no associated major in the database. Manual review required.</t>
+        </is>
       </c>
     </row>
   </sheetData>
